--- a/smoke_test_sheet.xlsx
+++ b/smoke_test_sheet.xlsx
@@ -449,7 +449,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Wednesday, 17 January 2024</v>
+        <v>Thursday, 18 January 2024</v>
       </c>
     </row>
     <row r="11">
